--- a/biology/Botanique/Rutaceae/Rutaceae.xlsx
+++ b/biology/Botanique/Rutaceae/Rutaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rutaceae (Rutacées) forment une famille de plantes appartenant à l'ordre des Sapindales. Selon Watson &amp; Dallwitz en 1994[1], elle comprend 900 espèces réparties en 150 genres. Aujourd'hui la famille est plus grande (160 genres).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rutaceae (Rutacées) forment une famille de plantes appartenant à l'ordre des Sapindales. Selon Watson &amp; Dallwitz en 1994, elle comprend 900 espèces réparties en 150 genres. Aujourd'hui la famille est plus grande (160 genres).
 Ce sont des arbres, des arbustes ou plus rarement des plantes herbacées des régions tempérées à tropicales, producteurs d'huiles essentielles.
 Les agrumes appartiennent à cette famille.
 On peut citer :
@@ -518,9 +530,11 @@
           <t>Étymologie et dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Ruta, du latin rūta , dérivé du grec rutê désignant la même plante, la « rue » et provenant peut-être de rutos, « qui coule », en référence à ses vertus emménagogues[2], ou du latin rua, « sauver », en raison de ses propriétés médicinales, d'où le nom vernaculaire d'« herbe de grâce »[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Ruta, du latin rūta , dérivé du grec rutê désignant la même plante, la « rue » et provenant peut-être de rutos, « qui coule », en référence à ses vertus emménagogues, ou du latin rua, « sauver », en raison de ses propriétés médicinales, d'où le nom vernaculaire d'« herbe de grâce »,.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG IV reconnaît cinq sous-familles[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG IV reconnaît cinq sous-familles :
 Cneoroideae Webb dans les zones tropicales, du nord de l'Australie et de la région Méditerranéenne ;
 Amyridoideae Arnott, pantropical, et dans certaines régions tempérées (chaudes) ;
 Rutoideae Eaton depuis les régions tempérées chaudes de l'hémisphère nord jusqu'aux régions tropicales et sud de l'Afrique (absent d'Australie et d'Amérique du Sud) ;
@@ -583,22 +599,14 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractères morphologiques de cette famille sont assez variables. Le plus caractéristique est la présence de glandes à huiles essentielles visibles sur les feuilles sous la forme de points translucides.
 Ce sont des arbres ou des arbustes, ou très rarement des plantes herbacées.
 Les fruits sont des baies, des drupes, des samares, des capsules ou des follicules.
-La plupart des plantes de cette famille sont toxiques, provoquant des troubles dermatologiques. En effet, les Rutacées sont riches en furanocoumarines photosensibilisantes, qui sont responsables de manifestations phototoxiques. Le contact avec une plante de la famille (surtout les agrumes) ou l’un des produits qui en est issu : huile essentielle, produit cosmétique, etc., en présence de soleil, provoque un érythème, souvent suivi par la formation de vésicules qui fusionnent donnant naissance à des bulles. Par la suite, on peut observer une hyperpigmentation de la zone affectée due à la stimulation de la mélanogenèse. Ces réactions passent souvent inaperçues et sont souvent attribuées à d'autres dermatites : allergie, impétigo, infection par des champignons, etc[6].
-Utilisation
-Fruits comestibles : produits essentiellement par les espèces du genre Citrus (les agrumes), mais aussi Fortunella.
-Huiles essentielles, utilisées en parfumerie (genre Ruta, Toddalia...)
-Cosmétique (thanaka) : Limonia acidissima &amp; quelques Murraya.
-Plantes médicinales : Ruta, Zanthoxylum, Citrus, Dictamnus (Fraxinelle)...
-Plantes ornementales : Phellodendron, Poncirus, Citrus, Severinia, oranger du Mexique.
-Pharmacopée
-L’hyperpigmentation provoquée par l’application de certaines Rutacées et Apiaceae riches en furanocoumarines a été mise à profit par les Égyptiens, la médecine ayurvédique et Dioscoride pour traiter le psoriasis, le vitiligo et d’autres affections dermatologiques. La médecine contemporaine a repris ces pratiques anciennes pour traiter les mêmes affections. Cette photochimiothérapie (PUVAthérapie) consiste en l’ingestion par le patient d’une dose voisine de 0,6 mg/kg de xanthotoxine suivie d'une exposition contrôlée aux rayons UV longs (320-380 nm) [7]. Cette pratique n’est pas sans risque et peut être la cause de cancérogenèse, si l’on considère la photosensibilisation de ces furanocoumarines en cas d’exposition solaire [8]. La présence de ces furanocoumarines dans l’huile essentielle de Citrus aurantium L. ssp. bergamia Engler, a poussé l’Union européenne, en juin 1995, à interdire la commercialisation des préparations destinées à accélérer le bronzage (en) et dont la teneur en bergaptène dépassait 0,2 %[9].
-Aire de répartition
-Les Rutacées sont généralement originaires des régions tropicales et subtropicales, toutefois certains genres poussent dans les régions tempérées (Ruta).
+La plupart des plantes de cette famille sont toxiques, provoquant des troubles dermatologiques. En effet, les Rutacées sont riches en furanocoumarines photosensibilisantes, qui sont responsables de manifestations phototoxiques. Le contact avec une plante de la famille (surtout les agrumes) ou l’un des produits qui en est issu : huile essentielle, produit cosmétique, etc., en présence de soleil, provoque un érythème, souvent suivi par la formation de vésicules qui fusionnent donnant naissance à des bulles. Par la suite, on peut observer une hyperpigmentation de la zone affectée due à la stimulation de la mélanogenèse. Ces réactions passent souvent inaperçues et sont souvent attribuées à d'autres dermatites : allergie, impétigo, infection par des champignons, etc.
 </t>
         </is>
       </c>
@@ -624,12 +632,132 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fruits comestibles : produits essentiellement par les espèces du genre Citrus (les agrumes), mais aussi Fortunella.
+Huiles essentielles, utilisées en parfumerie (genre Ruta, Toddalia...)
+Cosmétique (thanaka) : Limonia acidissima &amp; quelques Murraya.
+Plantes médicinales : Ruta, Zanthoxylum, Citrus, Dictamnus (Fraxinelle)...
+Plantes ornementales : Phellodendron, Poncirus, Citrus, Severinia, oranger du Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rutaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rutaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hyperpigmentation provoquée par l’application de certaines Rutacées et Apiaceae riches en furanocoumarines a été mise à profit par les Égyptiens, la médecine ayurvédique et Dioscoride pour traiter le psoriasis, le vitiligo et d’autres affections dermatologiques. La médecine contemporaine a repris ces pratiques anciennes pour traiter les mêmes affections. Cette photochimiothérapie (PUVAthérapie) consiste en l’ingestion par le patient d’une dose voisine de 0,6 mg/kg de xanthotoxine suivie d'une exposition contrôlée aux rayons UV longs (320-380 nm) . Cette pratique n’est pas sans risque et peut être la cause de cancérogenèse, si l’on considère la photosensibilisation de ces furanocoumarines en cas d’exposition solaire . La présence de ces furanocoumarines dans l’huile essentielle de Citrus aurantium L. ssp. bergamia Engler, a poussé l’Union européenne, en juin 1995, à interdire la commercialisation des préparations destinées à accélérer le bronzage (en) et dont la teneur en bergaptène dépassait 0,2 %.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rutaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rutaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Caractéristiques générales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rutacées sont généralement originaires des régions tropicales et subtropicales, toutefois certains genres poussent dans les régions tempérées (Ruta).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rutaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rutaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (18 octobre 2017)[10][5] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (18 octobre 2017) :
 code sous-famille : AM = Amyridoideae, AUR = Aurantioideae, C = Cneoroideae, R = Rutoideae
 Achuaria Gereau (anc. Raputia Aublet) - AM
 Acmadenia Bartling &amp; H. L. Wendlbo - AM
@@ -850,7 +978,7 @@
 Zanthoxylon L. (anc. Zanthoxylum L.) - AM
 Zieria Smith (anc. Boronia Smith) - AM
 Zieridium Baillon (anc. Melicope J. R. Forster &amp; G. Forster) - AM
-Selon NCBI  (22 juin 2010)[11] :
+Selon NCBI  (22 juin 2010) :
 Acmadenia
 Acronychia
 Adenandra
@@ -963,7 +1091,7 @@
 ×Citrofortunella
 Zanthoxylum
 Zieria
-Selon DELTA Angio           (22 juin 2010)[12] :
+Selon DELTA Angio           (22 juin 2010) :
 Acmadenia
 Acradenia
 Acronychia
@@ -1123,7 +1251,7 @@
 Zanthoxylum
 Zieria
 Zieridium
-Selon ITIS      (22 juin 2010)[13] :
+Selon ITIS      (22 juin 2010) :
 Acronychia J.R. &amp; G. Forst.
 Aegle Corr. Serr.
 Agathosma Willd.
